--- a/biology/Zoologie/Chrysemosa_jeanneli/Chrysemosa_jeanneli.xlsx
+++ b/biology/Zoologie/Chrysemosa_jeanneli/Chrysemosa_jeanneli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysemosa jeanneli  est une espèce d'insectes de la famille des Chrysopidae, ordre des névroptères. On la trouve en Namibie, en Afrique du Sud, en Tanzanie, au Kenya, au Botswana et au Swaziland.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
